--- a/biology/Médecine/Il_est_minuit,_docteur_Schweitzer/Il_est_minuit,_docteur_Schweitzer.xlsx
+++ b/biology/Médecine/Il_est_minuit,_docteur_Schweitzer/Il_est_minuit,_docteur_Schweitzer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est minuit, docteur Schweitzer est un film français d'André Haguet, sorti en 1952. 
 Il est adapté de la pièce de théâtre éponyme de Gilbert Cesbron, publiée la même année. 
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Alsacien Albert Schweitzer, médecin missionnaire et musicien, se rend en 1913 à Lambaréné au Gabon, alors colonie française, pour combattre le paludisme qui fait des ravages au sein de la population. L'administrateur français Leblanc voit d'un mauvais œil l'arrivée de ce ressortissant de l'Empire allemand. Mais Albert peut compter sur la dévouée Marie Winter et le père Charles pour l'assister dans sa tâche…
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Il est minuit, docteur Schweitzer
 Réalisation : André Haguet
@@ -595,7 +611,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pierre Fresnay : le pasteur et docteur Albert Schweitzer
 Raymond Rouleau : le commandant Lieuvin
@@ -640,7 +658,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le tournage a eu lieu du 31 mars au 25 juillet 1952 dans les studios Paris-Studio-Cinéma à Billancourt.
 Il est minuit, docteur Schweitzer est aussi le titre d'une chanson du Franco-Gabonais Jann Halexander, sortie en 2012.
